--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2096822958392987</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.984321152060976</v>
+        <v>-1.972158723845943</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2004952975860825</v>
+        <v>-0.2264138767444912</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3186405921962418</v>
+        <v>-0.2879152281843816</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.168932606395039</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.087144019429871</v>
+        <v>-2.040912642053045</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2543000600060892</v>
+        <v>-0.278390706896284</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3261572546164849</v>
+        <v>-0.2769354361615631</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1290874801952798</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.300816920194341</v>
+        <v>-2.247241487948792</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.264635165873585</v>
+        <v>-0.3053144353299735</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3914785392548484</v>
+        <v>-0.3442231050617623</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1007781918025216</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.4320986863403</v>
+        <v>-2.3741702502248</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1952951138961286</v>
+        <v>-0.2500550120959227</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4196379669796295</v>
+        <v>-0.3845565494944347</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07848487294237171</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.452637765129791</v>
+        <v>-2.432243847461367</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1570482080986113</v>
+        <v>-0.2159140922942734</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4118492799375568</v>
+        <v>-0.3796100928060079</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05713566453627052</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.339858552633661</v>
+        <v>-2.374488018897386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09748022919782771</v>
+        <v>0.002475325063489717</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4186742923103676</v>
+        <v>-0.3968708479579779</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03231142589218935</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.283332934074681</v>
+        <v>-2.314047929435037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1561015352021138</v>
+        <v>0.07491377407882631</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3575760984378076</v>
+        <v>-0.3510493372759266</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.001228883305494536</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.955512768736135</v>
+        <v>-2.009480989897511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.184292068881409</v>
+        <v>0.1287746492010938</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3697897599896874</v>
+        <v>-0.351944090908716</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04283438943134946</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.45554066262342</v>
+        <v>-1.519220650720654</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2397631345902914</v>
+        <v>0.1683505721532451</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2717254937407812</v>
+        <v>-0.251296200673105</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1082127982440073</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.058615874688642</v>
+        <v>-1.101279826027168</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2189380030034057</v>
+        <v>0.1631357503670492</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1707372677675447</v>
+        <v>-0.1574464863005278</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1990331526075656</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4339021818467363</v>
+        <v>-0.4732426754176628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08611252762459741</v>
+        <v>0.03499690546837291</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03269819044389403</v>
+        <v>-0.02940400886877777</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3145495402721553</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003318845359432281</v>
+        <v>0.04450434897752164</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006236781883179543</v>
+        <v>-0.08508244760775449</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09721064425870507</v>
+        <v>0.1065839052189692</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4486671041494906</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6702957716552408</v>
+        <v>0.7523941443489132</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3424659235920512</v>
+        <v>-0.3740085813107538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2901663693960742</v>
+        <v>0.2814865882452726</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5894912887835987</v>
       </c>
       <c r="E15" t="n">
-        <v>1.347003982348565</v>
+        <v>1.424782896809507</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6899505414696315</v>
+        <v>-0.6788920696795124</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4912803935056253</v>
+        <v>0.4789618255973448</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7296741571980987</v>
       </c>
       <c r="E16" t="n">
-        <v>2.143754950877411</v>
+        <v>2.195461586169404</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9356156114915678</v>
+        <v>-0.9293651443962537</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6283039529024905</v>
+        <v>0.6127442665179708</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8707134176303287</v>
       </c>
       <c r="E17" t="n">
-        <v>2.720753329335962</v>
+        <v>2.795879698773728</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.258760124922163</v>
+        <v>-1.267790000541418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7789226441840699</v>
+        <v>0.7901445747155574</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.016291568171908</v>
       </c>
       <c r="E18" t="n">
-        <v>3.342091721152744</v>
+        <v>3.417803614440187</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.487218112811683</v>
+        <v>-1.51714509065768</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9325409253538963</v>
+        <v>0.9582130965588987</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.167016056356278</v>
       </c>
       <c r="E19" t="n">
-        <v>3.758678521943849</v>
+        <v>3.862866391787306</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.792844484564721</v>
+        <v>-1.883576894358439</v>
       </c>
       <c r="G19" t="n">
-        <v>1.137255921138968</v>
+        <v>1.160164541757625</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.318823007949762</v>
       </c>
       <c r="E20" t="n">
-        <v>4.113346175631491</v>
+        <v>4.239591216828864</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.041747623459513</v>
+        <v>-2.161507378101025</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296986827331163</v>
+        <v>1.321175671450315</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.467312093196506</v>
       </c>
       <c r="E21" t="n">
-        <v>4.513939636436908</v>
+        <v>4.635032067757114</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.34097470747211</v>
+        <v>-2.497823128545994</v>
       </c>
       <c r="G21" t="n">
-        <v>1.491582629168308</v>
+        <v>1.514544922806519</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.609384988019724</v>
       </c>
       <c r="E22" t="n">
-        <v>4.742056068747449</v>
+        <v>4.882745251411571</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.517386944173365</v>
+        <v>-2.698026541085161</v>
       </c>
       <c r="G22" t="n">
-        <v>1.556182377646079</v>
+        <v>1.624830779576103</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.740163363655876</v>
       </c>
       <c r="E23" t="n">
-        <v>4.960990755190226</v>
+        <v>5.109617445541546</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.821204901119845</v>
+        <v>-3.036604487320189</v>
       </c>
       <c r="G23" t="n">
-        <v>1.790982930653102</v>
+        <v>1.833720072472838</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.853602483586463</v>
       </c>
       <c r="E24" t="n">
-        <v>5.057016666537439</v>
+        <v>5.21980571500285</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.949344965859875</v>
+        <v>-3.216750048483819</v>
       </c>
       <c r="G24" t="n">
-        <v>1.936517933093986</v>
+        <v>1.979106864189273</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.94420394011954</v>
       </c>
       <c r="E25" t="n">
-        <v>5.230187784762455</v>
+        <v>5.402412306097158</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.248706842342033</v>
+        <v>-3.496413621829384</v>
       </c>
       <c r="G25" t="n">
-        <v>1.996577432054044</v>
+        <v>2.045093572285968</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.007923877822849</v>
       </c>
       <c r="E26" t="n">
-        <v>5.278059238839057</v>
+        <v>5.468835107477728</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.422894698335188</v>
+        <v>-3.650967521317341</v>
       </c>
       <c r="G26" t="n">
-        <v>2.079084451601138</v>
+        <v>2.099977894303819</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.043397550470968</v>
       </c>
       <c r="E27" t="n">
-        <v>5.366785619526951</v>
+        <v>5.51061101431091</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.602119279276928</v>
+        <v>-3.829898120492889</v>
       </c>
       <c r="G27" t="n">
-        <v>2.119733834944365</v>
+        <v>2.159472606717209</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.052391253971404</v>
       </c>
       <c r="E28" t="n">
-        <v>5.307994145653852</v>
+        <v>5.440383527748785</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.613430563187559</v>
+        <v>-3.858951082009106</v>
       </c>
       <c r="G28" t="n">
-        <v>2.17282621001393</v>
+        <v>2.195520138554372</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.038670946636561</v>
       </c>
       <c r="E29" t="n">
-        <v>5.242774107847828</v>
+        <v>5.381494466567407</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.643085821372065</v>
+        <v>-3.851940043829887</v>
       </c>
       <c r="G29" t="n">
-        <v>2.229271928964256</v>
+        <v>2.251998793221242</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.005666513777629</v>
       </c>
       <c r="E30" t="n">
-        <v>5.1385959967352</v>
+        <v>5.2739398345883</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.625708571370836</v>
+        <v>-3.819071113599596</v>
       </c>
       <c r="G30" t="n">
-        <v>2.211797701575424</v>
+        <v>2.229689114707152</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.957352474216879</v>
       </c>
       <c r="E31" t="n">
-        <v>5.126126778419762</v>
+        <v>5.236848118552544</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.658317675392832</v>
+        <v>-3.824542407030364</v>
       </c>
       <c r="G31" t="n">
-        <v>2.131408326618</v>
+        <v>2.157616008177187</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.897994449689544</v>
       </c>
       <c r="E32" t="n">
-        <v>4.93532651295402</v>
+        <v>5.060474916774601</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.579654680910943</v>
+        <v>-3.762250903353747</v>
       </c>
       <c r="G32" t="n">
-        <v>2.058979026412814</v>
+        <v>2.069340968790087</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.831637163856987</v>
       </c>
       <c r="E33" t="n">
-        <v>4.710542687221231</v>
+        <v>4.825660335592013</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.555276151461324</v>
+        <v>-3.706329716185424</v>
       </c>
       <c r="G33" t="n">
-        <v>1.93245464154549</v>
+        <v>1.95415866882757</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.761183492391791</v>
       </c>
       <c r="E34" t="n">
-        <v>4.548315985619783</v>
+        <v>4.652874687234702</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.27489012707415</v>
+        <v>-3.458160006904422</v>
       </c>
       <c r="G34" t="n">
-        <v>1.768284732667923</v>
+        <v>1.801916368704487</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.690112218330741</v>
       </c>
       <c r="E35" t="n">
-        <v>4.346326115418421</v>
+        <v>4.405287147239656</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.13554947902632</v>
+        <v>-3.306398019314278</v>
       </c>
       <c r="G35" t="n">
-        <v>1.729680413353831</v>
+        <v>1.741340876851901</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.620486482967803</v>
       </c>
       <c r="E36" t="n">
-        <v>4.136524381189271</v>
+        <v>4.177886761803617</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.007118787083819</v>
+        <v>-3.158888703642761</v>
       </c>
       <c r="G36" t="n">
-        <v>1.646650691786764</v>
+        <v>1.672341160612069</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.551591290218919</v>
       </c>
       <c r="E37" t="n">
-        <v>3.905269297076184</v>
+        <v>3.936161779353473</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.917601644238522</v>
+        <v>-3.055405597141286</v>
       </c>
       <c r="G37" t="n">
-        <v>1.581532510733758</v>
+        <v>1.580319378507706</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.482535560468867</v>
       </c>
       <c r="E38" t="n">
-        <v>3.73873167613148</v>
+        <v>3.765248587473779</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.804466847987848</v>
+        <v>-2.933158281019658</v>
       </c>
       <c r="G38" t="n">
-        <v>1.49381798844859</v>
+        <v>1.51155326188707</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.413402597842837</v>
       </c>
       <c r="E39" t="n">
-        <v>3.47417492306795</v>
+        <v>3.432574673389672</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.618404446339085</v>
+        <v>-2.72672452876751</v>
       </c>
       <c r="G39" t="n">
-        <v>1.341185949013065</v>
+        <v>1.361404819447263</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.343766791191682</v>
       </c>
       <c r="E40" t="n">
-        <v>3.23043110317777</v>
+        <v>3.203808065637717</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.522532235002412</v>
+        <v>-2.610845699392147</v>
       </c>
       <c r="G40" t="n">
-        <v>1.246012096851268</v>
+        <v>1.268169295196171</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.27265524281785</v>
       </c>
       <c r="E41" t="n">
-        <v>2.888131420973225</v>
+        <v>2.859988461106716</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.375157101879779</v>
+        <v>-2.457647043647923</v>
       </c>
       <c r="G41" t="n">
-        <v>1.138991145464316</v>
+        <v>1.12857735982952</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.200474233277812</v>
       </c>
       <c r="E42" t="n">
-        <v>2.546276980862705</v>
+        <v>2.547987198440307</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.355013861609497</v>
+        <v>-2.414135302568717</v>
       </c>
       <c r="G42" t="n">
-        <v>1.104998436387117</v>
+        <v>1.088139009040447</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.127637294427665</v>
       </c>
       <c r="E43" t="n">
-        <v>2.314808424512757</v>
+        <v>2.28011003721256</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.205104508074975</v>
+        <v>-2.259627147131515</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9927504648004343</v>
+        <v>0.9923216905646804</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.053868229766337</v>
       </c>
       <c r="E44" t="n">
-        <v>1.941729095356121</v>
+        <v>1.933612270989958</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.190279776105937</v>
+        <v>-2.228288202918846</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9790473769559357</v>
+        <v>0.9430498586142653</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9795880471121273</v>
       </c>
       <c r="E45" t="n">
-        <v>1.721462952076005</v>
+        <v>1.692530754853784</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.181876898942379</v>
+        <v>-2.195625730837634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8735536669435614</v>
+        <v>0.8495715859338278</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9064118285392958</v>
       </c>
       <c r="E46" t="n">
-        <v>1.467734730707459</v>
+        <v>1.431563994893592</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.148813099055867</v>
+        <v>-2.137230705404421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7245726126790505</v>
+        <v>0.7049532942700957</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8359173424769089</v>
       </c>
       <c r="E47" t="n">
-        <v>1.209696199916335</v>
+        <v>1.176269497227157</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.067480176811514</v>
+        <v>-2.070322407165159</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6498323230296668</v>
+        <v>0.6185000879444422</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7690668444131276</v>
       </c>
       <c r="E48" t="n">
-        <v>1.017202184731264</v>
+        <v>0.9760331489714468</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.007563399289815</v>
+        <v>-1.995809617928203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.54074922983463</v>
+        <v>0.5137559704437913</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.706299622542007</v>
       </c>
       <c r="E49" t="n">
-        <v>0.844608051466452</v>
+        <v>0.8049467396195561</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.948794492481756</v>
+        <v>-1.916007596582487</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4678600494391766</v>
+        <v>0.4275205057997368</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6465969798326543</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6529441383224353</v>
+        <v>0.6036448599415665</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.939804261706489</v>
+        <v>-1.899355542265911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4101560641327196</v>
+        <v>0.3911606945760781</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5881223920648021</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3827456189989851</v>
+        <v>0.3673335334182385</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.869814644208296</v>
+        <v>-1.81938396297206</v>
       </c>
       <c r="G51" t="n">
-        <v>0.287080170771729</v>
+        <v>0.2706306101198339</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5305387545837215</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2861110068163764</v>
+        <v>0.2512406218853364</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.803313772981102</v>
+        <v>-1.765319374343758</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2450456575716063</v>
+        <v>0.2300214815412714</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4746905417136146</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09426045794527471</v>
+        <v>0.06541364961779857</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.719861986305725</v>
+        <v>-1.707467178312851</v>
       </c>
       <c r="G53" t="n">
-        <v>0.202765956259431</v>
+        <v>0.1770254739386327</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4219166328929028</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1411817316136874</v>
+        <v>-0.1507147917912595</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.677102887341626</v>
+        <v>-1.639674495092305</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09922948169874114</v>
+        <v>0.081922982496015</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3731186317602917</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2192771949058622</v>
+        <v>-0.2473914885005639</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.571035851893108</v>
+        <v>-1.580850085502661</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08309707979875501</v>
+        <v>0.06628827586825528</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3304336633969083</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3974539321249491</v>
+        <v>-0.4243374057939733</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.55875631890814</v>
+        <v>-1.583917986506704</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05367214267590625</v>
+        <v>-0.06987834497777889</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2943138382917138</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.563543261372243</v>
+        <v>-0.5698101963258293</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.50108465939755</v>
+        <v>-1.53395572435021</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1017406011310975</v>
+        <v>-0.1092694619648755</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2631278053496633</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7324248074776896</v>
+        <v>-0.7327468455950125</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.48441857690541</v>
+        <v>-1.523645625230461</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1751518736258472</v>
+        <v>-0.1629461410427651</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2359205172218907</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9516705534656069</v>
+        <v>-0.9315974540731515</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.482488177963502</v>
+        <v>-1.502081269783357</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1983294692629501</v>
+        <v>-0.2080406262781327</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2128462681357702</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.177599810229329</v>
+        <v>-1.143812644420194</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.501581134828423</v>
+        <v>-1.516892583497507</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2614050259695273</v>
+        <v>-0.2574027264887065</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1937432949524378</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.331635277142052</v>
+        <v>-1.282509216233379</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.423986416411859</v>
+        <v>-1.448582077622401</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2968859414979921</v>
+        <v>-0.3183075755067374</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1782791394474083</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.532687089342574</v>
+        <v>-1.457458863151792</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.348813693002661</v>
+        <v>-1.378666260526094</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.376133544948544</v>
+        <v>-0.3689151337392307</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1674598618927767</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.656909633575851</v>
+        <v>-1.578117030950154</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.419596817301303</v>
+        <v>-1.451537753221922</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4573658302812341</v>
+        <v>-0.470027173609847</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1623803110306381</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.865483597482708</v>
+        <v>-1.765487712450541</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.417811579480461</v>
+        <v>-1.420343970130319</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4863157152030806</v>
+        <v>-0.5088315469059119</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1624254831893724</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.058952875829899</v>
+        <v>-1.944016373900111</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.385909678483154</v>
+        <v>-1.388091364743882</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5241759312915396</v>
+        <v>-0.5438922270880974</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1666132317424864</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.204899574727588</v>
+        <v>-2.08201641630045</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.349353472801583</v>
+        <v>-1.367927997091268</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6365312489173296</v>
+        <v>-0.6483411429812023</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1739045632608414</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.403925230439954</v>
+        <v>-2.278592020654319</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.333956025317078</v>
+        <v>-1.364744211158643</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6746525110554368</v>
+        <v>-0.6894973704068077</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1828300808384387</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.631143859514322</v>
+        <v>-2.480600188475983</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.3374441616674</v>
+        <v>-1.373594770098934</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7568442016126515</v>
+        <v>-0.7692005846028904</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1919638768955989</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.735422607538614</v>
+        <v>-2.566527033257603</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.322459020560377</v>
+        <v>-1.363202941608501</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7563971297565952</v>
+        <v>-0.7661918459044923</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2000506763750728</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.883568680396657</v>
+        <v>-2.708698323166221</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.233448416837119</v>
+        <v>-1.263008222435714</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.8024132051345292</v>
+        <v>-0.8028127031777992</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2059916149865279</v>
       </c>
       <c r="E71" t="n">
-        <v>-3.000724683669131</v>
+        <v>-2.836590760111491</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.267295354872576</v>
+        <v>-1.294508795627721</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8425648932055306</v>
+        <v>-0.848928195626043</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2097844453167881</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.128786678562537</v>
+        <v>-2.956710977872961</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.249564350878833</v>
+        <v>-1.26623287305368</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.9265351124561427</v>
+        <v>-0.925437865158673</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2177170684443522</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.143408916866895</v>
+        <v>-2.962307000082124</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.249737568351029</v>
+        <v>-1.24979002152923</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9655096536210204</v>
+        <v>-0.9493644433868225</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2302800047357762</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.143342435513129</v>
+        <v>-2.961195724609089</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.316241489181607</v>
+        <v>-1.320929339503093</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9705372297594546</v>
+        <v>-0.962636927233537</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.239200174340124</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.128746118837533</v>
+        <v>-2.940135163640979</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.321808235198287</v>
+        <v>-1.331963414466142</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.001026554469413</v>
+        <v>-0.989663732261597</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2432940571449479</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.990353897442045</v>
+        <v>-2.818756069602701</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.320391389466201</v>
+        <v>-1.318203603998706</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.9201791290837512</v>
+        <v>-0.9164421450973158</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2450237165532588</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.922928081508563</v>
+        <v>-2.709077083906482</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.263538853424484</v>
+        <v>-1.247666277732793</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.9155071366998611</v>
+        <v>-0.9051573927361233</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2466253157593234</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.787977032571288</v>
+        <v>-2.577351905428527</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.286655456993913</v>
+        <v>-1.26330342404326</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8747485775554954</v>
+        <v>-0.8749907160641643</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2487945261221778</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.565039436727014</v>
+        <v>-2.37064978807861</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.262395862076259</v>
+        <v>-1.22663804256055</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8109630731811834</v>
+        <v>-0.8108118128533499</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2518071415035089</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.404173468155391</v>
+        <v>-2.228588893812483</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.239511638284671</v>
+        <v>-1.182290710154199</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7574156972867645</v>
+        <v>-0.7605232431347958</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2554840733519322</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.147737198982083</v>
+        <v>-1.977441856747935</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.133286023460199</v>
+        <v>-1.097753264674211</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7202312733081424</v>
+        <v>-0.7238993362581052</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2591420771366171</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.907643144421564</v>
+        <v>-1.733230227698689</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.180058400477301</v>
+        <v>-1.106257388670109</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6184044064043773</v>
+        <v>-0.6293085682632791</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.262542659702226</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.669097678459308</v>
+        <v>-1.478025998292414</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.102558829686309</v>
+        <v>-1.024935444997937</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5427870508218299</v>
+        <v>-0.5555417120139853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2654979233586681</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.340008878113126</v>
+        <v>-1.158544668446367</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.001276012026203</v>
+        <v>-0.9347013403971225</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4904302400884231</v>
+        <v>-0.4975028802559935</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2673822683829029</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.080771853192191</v>
+        <v>-0.8981329363020158</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9442587974017645</v>
+        <v>-0.8736434012892279</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4558019936660521</v>
+        <v>-0.4631985017129758</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2671923421339558</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7751936651726169</v>
+        <v>-0.5967235561080141</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.846751998651406</v>
+        <v>-0.7842180515057811</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4116925303236325</v>
+        <v>-0.4026925408175382</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2637063672857801</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5289333125701745</v>
+        <v>-0.350632151533031</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7417925791518629</v>
+        <v>-0.6761974401296396</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2955782715670442</v>
+        <v>-0.3072478838752649</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.254975911934041</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1934379054354307</v>
+        <v>-0.0551652284925855</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7121260374348374</v>
+        <v>-0.6180671202701357</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1416202645802692</v>
+        <v>-0.1739619183855117</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2390380440330764</v>
       </c>
       <c r="E89" t="n">
-        <v>0.009687637066035502</v>
+        <v>0.1362327592363691</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5422131154650099</v>
+        <v>-0.4799420441310634</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1624417366430944</v>
+        <v>-0.1757258089826671</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2144529291653575</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2331186587377981</v>
+        <v>0.3317227047856264</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5222565109218135</v>
+        <v>-0.4456492540809039</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08925857448144844</v>
+        <v>-0.09924785532522813</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1806095492607461</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5042491368553192</v>
+        <v>0.591558671811127</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.368050266219602</v>
+        <v>-0.3318179284173836</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08328867089743845</v>
+        <v>-0.09023322772289184</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1379718902240426</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6654212856066704</v>
+        <v>0.7384013441829592</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1845867365744629</v>
+        <v>-0.1734910596230622</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0769918498306915</v>
+        <v>-0.08119786281754611</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0890198102222314</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8405520789660774</v>
+        <v>0.8897830462311505</v>
       </c>
       <c r="F93" t="n">
-        <v>0.009576631502867356</v>
+        <v>-0.00639475133845729</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02174828453423615</v>
+        <v>-0.03183637252764903</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03782054081375982</v>
       </c>
       <c r="E94" t="n">
-        <v>1.055636946097219</v>
+        <v>1.088532407876949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1389743526783516</v>
+        <v>0.1049328499470122</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02899414217400308</v>
+        <v>-0.01769597155792205</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01095395650734035</v>
       </c>
       <c r="E95" t="n">
-        <v>1.07280377346497</v>
+        <v>1.089627215491712</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2115555231320472</v>
+        <v>0.19718823167057</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04101262910932356</v>
+        <v>-0.01930372246182993</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0535981258394109</v>
       </c>
       <c r="E96" t="n">
-        <v>1.096988958060061</v>
+        <v>1.11933645165611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3283998569387029</v>
+        <v>0.2993969089179793</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02559200463910241</v>
+        <v>-0.008104358995382095</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08743614577881109</v>
       </c>
       <c r="E97" t="n">
-        <v>1.104492202225416</v>
+        <v>1.128457815376877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3877317205314005</v>
+        <v>0.3612989782424932</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.005657357240268887</v>
+        <v>-0.007681074045718944</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1131843060367301</v>
       </c>
       <c r="E98" t="n">
-        <v>1.110881731235028</v>
+        <v>1.111315384836196</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4356550178655257</v>
+        <v>0.4115509527204424</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05802270686315015</v>
+        <v>-0.04458310475100669</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1315201791635964</v>
       </c>
       <c r="E99" t="n">
-        <v>1.067615178267875</v>
+        <v>1.03668244122592</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4541502524672338</v>
+        <v>0.4096943541804213</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06393832750692957</v>
+        <v>-0.0516459861877492</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1489440022300743</v>
       </c>
       <c r="E100" t="n">
-        <v>1.047887293978459</v>
+        <v>1.035643746313418</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4566948415306267</v>
+        <v>0.4251119290472588</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1079075090936971</v>
+        <v>-0.09825002509806831</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1683744654622764</v>
       </c>
       <c r="E101" t="n">
-        <v>1.014139163092635</v>
+        <v>0.9854210480279529</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4565118653276022</v>
+        <v>0.433361716120953</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1622459521058583</v>
+        <v>-0.1484678440181197</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.200893777605431</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9736251821396454</v>
+        <v>0.9484330185072437</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4536141321923722</v>
+        <v>0.4292831765555387</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1617031227035525</v>
+        <v>-0.15221702641809</v>
       </c>
     </row>
   </sheetData>
